--- a/Result/check1/2025-03-25.xlsx
+++ b/Result/check1/2025-03-25.xlsx
@@ -2607,7 +2607,7 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5753,7 +5753,7 @@
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -35519,7 +35519,7 @@
       </c>
       <c r="AV145" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
